--- a/data-raw/HTP_Verão.xlsx
+++ b/data-raw/HTP_Verão.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\doutorado-nhanombe-ea\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ednha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADD8489-F5F8-4564-898B-54F289A621C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D70395-82B7-47BE-BE90-51834F8EFE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7F1F7E45-D780-43F3-988B-9F297A9B9E77}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7F1F7E45-D780-43F3-988B-9F297A9B9E77}"/>
   </bookViews>
   <sheets>
     <sheet name="Epoca 1" sheetId="3" r:id="rId1"/>
@@ -79,7 +79,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -110,7 +110,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,6 +120,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -165,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -176,7 +182,11 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,18 +524,18 @@
   <dimension ref="A1:L217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K106" sqref="K106"/>
+      <selection activeCell="J204" sqref="J204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="5" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -562,7 +572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -575,32 +585,32 @@
       <c r="D2" s="3">
         <v>19942.1213541666</v>
       </c>
-      <c r="E2" s="4">
-        <v>20796.0197916666</v>
+      <c r="E2" s="12">
+        <v>27621</v>
       </c>
       <c r="F2" s="4">
         <v>137.75839245957101</v>
       </c>
-      <c r="G2" s="4">
-        <v>20947.024218750001</v>
+      <c r="G2" s="12">
+        <v>47355</v>
       </c>
       <c r="H2" s="4">
         <v>21762.943697916598</v>
       </c>
-      <c r="I2" s="4">
-        <v>3.0899740384506699E-2</v>
-      </c>
-      <c r="J2" s="4">
-        <v>9.4320899535515392E-3</v>
-      </c>
-      <c r="K2" s="4">
-        <v>4.63491474433037E-2</v>
-      </c>
-      <c r="L2" s="4">
-        <v>1.9049201821671798E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I2" s="12">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="J2" s="12">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="K2" s="12">
+        <v>0.498</v>
+      </c>
+      <c r="L2" s="12">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -638,7 +648,7 @@
         <v>0.155613755279883</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -676,7 +686,7 @@
         <v>0.15182182514072501</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -714,7 +724,7 @@
         <v>4.9606301804089301E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -752,7 +762,7 @@
         <v>0.111854342223022</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -790,7 +800,7 @@
         <v>0.132000561716518</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -828,7 +838,7 @@
         <v>0.15901980534211499</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -866,7 +876,7 @@
         <v>1.14716442661784E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -904,7 +914,7 @@
         <v>0.13451237377404399</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -942,7 +952,7 @@
         <v>0.14845759372689599</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -980,7 +990,7 @@
         <v>0.12096390184228401</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -1018,7 +1028,7 @@
         <v>0.13906879694806901</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -1056,7 +1066,7 @@
         <v>0.13800433115928301</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -1094,7 +1104,7 @@
         <v>0.16763253148090701</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -1132,7 +1142,7 @@
         <v>0.108174022231632</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -1170,7 +1180,7 @@
         <v>0.21713002285103</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -1208,7 +1218,7 @@
         <v>0.15842080076564699</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>1</v>
       </c>
@@ -1246,7 +1256,7 @@
         <v>0.199258383794649</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>1</v>
       </c>
@@ -1284,7 +1294,7 @@
         <v>0.167610528858013</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>1</v>
       </c>
@@ -1322,7 +1332,7 @@
         <v>1.46939461600775E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>1</v>
       </c>
@@ -1360,7 +1370,7 @@
         <v>0.12959816181439701</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>1</v>
       </c>
@@ -1398,7 +1408,7 @@
         <v>0.122242865306249</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>1</v>
       </c>
@@ -1436,7 +1446,7 @@
         <v>0.117152952325557</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>1</v>
       </c>
@@ -1474,7 +1484,7 @@
         <v>8.0253768508280005E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>1</v>
       </c>
@@ -1512,7 +1522,7 @@
         <v>0.15717596350730401</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>1</v>
       </c>
@@ -1550,7 +1560,7 @@
         <v>0.16823113446413801</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>1</v>
       </c>
@@ -1588,7 +1598,7 @@
         <v>9.2004130731314596E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>1</v>
       </c>
@@ -1626,7 +1636,7 @@
         <v>0.144003096463453</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>1</v>
       </c>
@@ -1664,7 +1674,7 @@
         <v>-6.2264646542665898E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>1</v>
       </c>
@@ -1702,7 +1712,7 @@
         <v>6.4930307058497796E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>1</v>
       </c>
@@ -1740,7 +1750,7 @@
         <v>0.15717596350730401</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>1</v>
       </c>
@@ -1778,7 +1788,7 @@
         <v>0.15112395828790801</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>1</v>
       </c>
@@ -1816,7 +1826,7 @@
         <v>0.14900237250012999</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>1</v>
       </c>
@@ -1854,7 +1864,7 @@
         <v>0.24866383900339101</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>1</v>
       </c>
@@ -1892,7 +1902,7 @@
         <v>0.19826277118433899</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>1</v>
       </c>
@@ -1930,7 +1940,7 @@
         <v>0.22579182489633001</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>1</v>
       </c>
@@ -1968,7 +1978,7 @@
         <v>0.16332773287218</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>1</v>
       </c>
@@ -2006,7 +2016,7 @@
         <v>0.142142525958671</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>1</v>
       </c>
@@ -2044,7 +2054,7 @@
         <v>0.12750527497120301</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>1</v>
       </c>
@@ -2082,7 +2092,7 @@
         <v>0.21017067232759601</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>1</v>
       </c>
@@ -2120,7 +2130,7 @@
         <v>0.17651399806808399</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>1</v>
       </c>
@@ -2158,7 +2168,7 @@
         <v>0.20840730862227999</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>1</v>
       </c>
@@ -2196,7 +2206,7 @@
         <v>0.179936322838715</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>1</v>
       </c>
@@ -2234,7 +2244,7 @@
         <v>0.149435061912185</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>1</v>
       </c>
@@ -2272,7 +2282,7 @@
         <v>8.7883201167332697E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>1</v>
       </c>
@@ -2310,7 +2320,7 @@
         <v>0.208322690637022</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>1</v>
       </c>
@@ -2348,7 +2358,7 @@
         <v>0.19293148934660401</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>1</v>
       </c>
@@ -2386,7 +2396,7 @@
         <v>0.19473281469586801</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>1</v>
       </c>
@@ -2424,7 +2434,7 @@
         <v>0.17016798962695401</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>1</v>
       </c>
@@ -2462,7 +2472,7 @@
         <v>0.19127519487665301</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>1</v>
       </c>
@@ -2500,7 +2510,7 @@
         <v>0.18508114845925</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>1</v>
       </c>
@@ -2538,7 +2548,7 @@
         <v>0.14718008907378999</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>1</v>
       </c>
@@ -2576,7 +2586,7 @@
         <v>0.14522052098403401</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>1</v>
       </c>
@@ -2614,7 +2624,7 @@
         <v>0.17637093846127999</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>3</v>
       </c>
@@ -2652,7 +2662,7 @@
         <v>0.114672738705552</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>3</v>
       </c>
@@ -2690,7 +2700,7 @@
         <v>9.5273436393334496E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>3</v>
       </c>
@@ -2728,7 +2738,7 @@
         <v>1.28591246957436E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>3</v>
       </c>
@@ -2766,7 +2776,7 @@
         <v>9.0685917324795605E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>3</v>
       </c>
@@ -2804,7 +2814,7 @@
         <v>-3.1562531060356901E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>3</v>
       </c>
@@ -2842,7 +2852,7 @@
         <v>-5.9625278943417903E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>3</v>
       </c>
@@ -2880,7 +2890,7 @@
         <v>2.75306000618829E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>3</v>
       </c>
@@ -2918,7 +2928,7 @@
         <v>0.139937654981832</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>3</v>
       </c>
@@ -2956,7 +2966,7 @@
         <v>8.3290008203369306E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>3</v>
       </c>
@@ -2994,7 +3004,7 @@
         <v>3.5086309989928698E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>3</v>
       </c>
@@ -3032,7 +3042,7 @@
         <v>8.1184407560841595E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>3</v>
       </c>
@@ -3070,7 +3080,7 @@
         <v>4.6408205832739698E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>3</v>
       </c>
@@ -3108,7 +3118,7 @@
         <v>0.13445653302697799</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>3</v>
       </c>
@@ -3146,7 +3156,7 @@
         <v>0.11240131252641999</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>3</v>
       </c>
@@ -3184,7 +3194,7 @@
         <v>5.20144725466214E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>3</v>
       </c>
@@ -3222,7 +3232,7 @@
         <v>5.8837545330295803E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>3</v>
       </c>
@@ -3260,7 +3270,7 @@
         <v>5.2157331664359999E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>3</v>
       </c>
@@ -3298,7 +3308,7 @@
         <v>0.111900146847754</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>3</v>
       </c>
@@ -3336,7 +3346,7 @@
         <v>0.207023692796447</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>3</v>
       </c>
@@ -3374,7 +3384,7 @@
         <v>1.4087603955454799E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>3</v>
       </c>
@@ -3412,7 +3422,7 @@
         <v>9.5242080808838406E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>3</v>
       </c>
@@ -3450,7 +3460,7 @@
         <v>7.9076316052968498E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>3</v>
       </c>
@@ -3488,7 +3498,7 @@
         <v>0.14157575181936899</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>3</v>
       </c>
@@ -3526,7 +3536,7 @@
         <v>3.8468920032237397E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>3</v>
       </c>
@@ -3564,7 +3574,7 @@
         <v>0.16758699818863701</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>3</v>
       </c>
@@ -3602,7 +3612,7 @@
         <v>0.110476019359521</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>3</v>
       </c>
@@ -3640,7 +3650,7 @@
         <v>0.116439712795655</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>3</v>
       </c>
@@ -3678,7 +3688,7 @@
         <v>1.6711586408841999E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>3</v>
       </c>
@@ -3716,7 +3726,7 @@
         <v>2.4371627621394901E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>3</v>
       </c>
@@ -3754,7 +3764,7 @@
         <v>4.2212628791315002E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>3</v>
       </c>
@@ -3792,7 +3802,7 @@
         <v>3.2591372680722097E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>3</v>
       </c>
@@ -3830,7 +3840,7 @@
         <v>8.9289254020776698E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>3</v>
       </c>
@@ -3868,7 +3878,7 @@
         <v>5.7693264699832499E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>3</v>
       </c>
@@ -3906,7 +3916,7 @@
         <v>-7.08864433174862E-4</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>3</v>
       </c>
@@ -3944,7 +3954,7 @@
         <v>0.26767830791675501</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>3</v>
       </c>
@@ -3982,7 +3992,7 @@
         <v>1.37381388310124E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>3</v>
       </c>
@@ -3998,8 +4008,8 @@
       <c r="E92" s="4">
         <v>29088.2205208333</v>
       </c>
-      <c r="F92" s="4">
-        <v>131.86091318640601</v>
+      <c r="F92" s="12">
+        <v>146</v>
       </c>
       <c r="G92" s="4">
         <v>60113.887708333299</v>
@@ -4020,7 +4030,7 @@
         <v>0.17699791929884501</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>3</v>
       </c>
@@ -4058,7 +4068,7 @@
         <v>3.8571369726723502E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>3</v>
       </c>
@@ -4096,7 +4106,7 @@
         <v>4.9144652650246201E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>3</v>
       </c>
@@ -4134,7 +4144,7 @@
         <v>-3.8568075483210798E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>3</v>
       </c>
@@ -4172,7 +4182,7 @@
         <v>0.28525262274281499</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>3</v>
       </c>
@@ -4210,7 +4220,7 @@
         <v>0.15796546242256801</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>3</v>
       </c>
@@ -4248,7 +4258,7 @@
         <v>1.19558028639201E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>3</v>
       </c>
@@ -4286,7 +4296,7 @@
         <v>4.2553555470402599E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>3</v>
       </c>
@@ -4324,7 +4334,7 @@
         <v>6.6084713640834097E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>3</v>
       </c>
@@ -4362,7 +4372,7 @@
         <v>3.04195457882741E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>3</v>
       </c>
@@ -4400,7 +4410,7 @@
         <v>1.9168487356808601E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>3</v>
       </c>
@@ -4438,7 +4448,7 @@
         <v>0.14389896643161601</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>3</v>
       </c>
@@ -4476,7 +4486,7 @@
         <v>0.12658077064363299</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>3</v>
       </c>
@@ -4514,7 +4524,7 @@
         <v>0.30760841634355102</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>3</v>
       </c>
@@ -4552,7 +4562,7 @@
         <v>8.3290008203369306E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>3</v>
       </c>
@@ -4590,7 +4600,7 @@
         <v>1.33087252913031E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>3</v>
       </c>
@@ -4628,7 +4638,7 @@
         <v>6.9872351306411506E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>3</v>
       </c>
@@ -4666,7 +4676,7 @@
         <v>-1.11590342610422E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>4</v>
       </c>
@@ -4704,7 +4714,7 @@
         <v>9.8015635336735296E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>4</v>
       </c>
@@ -4742,7 +4752,7 @@
         <v>0.12811293356530201</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>4</v>
       </c>
@@ -4780,7 +4790,7 @@
         <v>9.9592111867921704E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>4</v>
       </c>
@@ -4818,7 +4828,7 @@
         <v>1.0245735343787201E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>4</v>
       </c>
@@ -4856,7 +4866,7 @@
         <v>0.16579890202976899</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>4</v>
       </c>
@@ -4894,7 +4904,7 @@
         <v>0.12444344896083601</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>4</v>
       </c>
@@ -4932,7 +4942,7 @@
         <v>2.5357305023591199E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>4</v>
       </c>
@@ -4970,7 +4980,7 @@
         <v>0.15546189027298299</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>4</v>
       </c>
@@ -5008,7 +5018,7 @@
         <v>9.1568111248621298E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>4</v>
       </c>
@@ -5046,7 +5056,7 @@
         <v>5.7603289877249997E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>4</v>
       </c>
@@ -5084,7 +5094,7 @@
         <v>0.15834157433192</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>4</v>
       </c>
@@ -5122,7 +5132,7 @@
         <v>8.25684662497886E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>4</v>
       </c>
@@ -5160,7 +5170,7 @@
         <v>-1.7539229420819901E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>4</v>
       </c>
@@ -5198,7 +5208,7 @@
         <v>0.10935868016045799</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>4</v>
       </c>
@@ -5236,7 +5246,7 @@
         <v>8.1416948378918705E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>4</v>
       </c>
@@ -5274,7 +5284,7 @@
         <v>6.1439333725413499E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>4</v>
       </c>
@@ -5312,7 +5322,7 @@
         <v>0.18045987659943999</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>4</v>
       </c>
@@ -5350,7 +5360,7 @@
         <v>0.15813447926844701</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>4</v>
       </c>
@@ -5388,7 +5398,7 @@
         <v>0.124744212782501</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>4</v>
       </c>
@@ -5426,7 +5436,7 @@
         <v>0.180798822182279</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>4</v>
       </c>
@@ -5464,7 +5474,7 @@
         <v>0.12783190513864701</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>4</v>
       </c>
@@ -5502,7 +5512,7 @@
         <v>6.84664220992839E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>4</v>
       </c>
@@ -5540,7 +5550,7 @@
         <v>0.114436497240757</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>4</v>
       </c>
@@ -5578,7 +5588,7 @@
         <v>7.1844791649460907E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>4</v>
       </c>
@@ -5616,7 +5626,7 @@
         <v>0.112004728830574</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>4</v>
       </c>
@@ -5654,7 +5664,7 @@
         <v>0.115624129312005</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>4</v>
       </c>
@@ -5692,7 +5702,7 @@
         <v>9.2876643846715998E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>4</v>
       </c>
@@ -5730,7 +5740,7 @@
         <v>-6.21539586755342E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>4</v>
       </c>
@@ -5768,7 +5778,7 @@
         <v>0.18360151562366001</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>4</v>
       </c>
@@ -5806,7 +5816,7 @@
         <v>0.120578912976157</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>4</v>
       </c>
@@ -5844,7 +5854,7 @@
         <v>2.7019394664109099E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>4</v>
       </c>
@@ -5882,7 +5892,7 @@
         <v>0.12637590582519001</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>4</v>
       </c>
@@ -5901,26 +5911,26 @@
       <c r="F142" s="6">
         <v>140.54235092602599</v>
       </c>
-      <c r="G142" s="6">
-        <v>21539.297916666601</v>
+      <c r="G142" s="13">
+        <v>51737</v>
       </c>
       <c r="H142" s="9">
         <v>31910.252291666598</v>
       </c>
-      <c r="I142" s="6">
-        <v>0.13421234150519301</v>
-      </c>
-      <c r="J142" s="6">
-        <v>4.0547408058313597E-2</v>
-      </c>
-      <c r="K142" s="3">
-        <v>0.20131539297244699</v>
+      <c r="I142" s="13">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="J142" s="13">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="K142" s="14">
+        <v>0.64800000000000002</v>
       </c>
       <c r="L142" s="6">
         <v>9.1414695691078199E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>4</v>
       </c>
@@ -5958,7 +5968,7 @@
         <v>9.5974829984382101E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>4</v>
       </c>
@@ -5996,7 +6006,7 @@
         <v>0.262361247463961</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>4</v>
       </c>
@@ -6034,7 +6044,7 @@
         <v>0.211335158542103</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>4</v>
       </c>
@@ -6044,8 +6054,8 @@
       <c r="C146" s="4">
         <v>1</v>
       </c>
-      <c r="D146" s="4">
-        <v>13744.055312500001</v>
+      <c r="D146" s="12">
+        <v>17844</v>
       </c>
       <c r="E146" s="4">
         <v>20843.6832291666</v>
@@ -6056,8 +6066,8 @@
       <c r="G146" s="4">
         <v>21006.107447916602</v>
       </c>
-      <c r="H146" s="7">
-        <v>22311.7514583333</v>
+      <c r="H146" s="12">
+        <v>26948</v>
       </c>
       <c r="I146" s="4">
         <v>0.22571423748115399</v>
@@ -6072,7 +6082,7 @@
         <v>0.19040153576913901</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>4</v>
       </c>
@@ -6110,7 +6120,7 @@
         <v>0.16921606405999401</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>4</v>
       </c>
@@ -6148,7 +6158,7 @@
         <v>8.4511177316401204E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>4</v>
       </c>
@@ -6186,7 +6196,7 @@
         <v>-9.0811304953728692E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>4</v>
       </c>
@@ -6199,8 +6209,8 @@
       <c r="D150" s="3">
         <v>20901.237031249999</v>
       </c>
-      <c r="E150" s="3">
-        <v>20874.9769791666</v>
+      <c r="E150" s="14">
+        <v>27728</v>
       </c>
       <c r="F150" s="3">
         <v>144.555024135259</v>
@@ -6211,8 +6221,8 @@
       <c r="H150" s="5">
         <v>31060.136302083301</v>
       </c>
-      <c r="I150" s="3">
-        <v>6.0208790049259102E-2</v>
+      <c r="I150" s="14">
+        <v>0.35599999999999998</v>
       </c>
       <c r="J150" s="3">
         <v>5.8399556311388601E-2</v>
@@ -6224,7 +6234,7 @@
         <v>1.44191181095052E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>4</v>
       </c>
@@ -6237,8 +6247,8 @@
       <c r="D151" s="6">
         <v>20797.430572916601</v>
       </c>
-      <c r="E151" s="6">
-        <v>30985.555833333299</v>
+      <c r="E151" s="13">
+        <v>24803</v>
       </c>
       <c r="F151" s="6">
         <v>124.956829620486</v>
@@ -6258,11 +6268,11 @@
       <c r="K151" s="3">
         <v>0.747034931762385</v>
       </c>
-      <c r="L151" s="6">
-        <v>0.172410310587682</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L151" s="13">
+        <v>5.9799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>4</v>
       </c>
@@ -6284,8 +6294,8 @@
       <c r="G152" s="4">
         <v>58282.156041666603</v>
       </c>
-      <c r="H152" s="7">
-        <v>21920.721249999999</v>
+      <c r="H152" s="12">
+        <v>26840</v>
       </c>
       <c r="I152" s="4">
         <v>0.48112595112059697</v>
@@ -6300,7 +6310,7 @@
         <v>0.10472841076229999</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>4</v>
       </c>
@@ -6338,7 +6348,7 @@
         <v>0.19688027463795199</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>4</v>
       </c>
@@ -6376,7 +6386,7 @@
         <v>0.12526363210296099</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>4</v>
       </c>
@@ -6414,7 +6424,7 @@
         <v>0.14848834852999601</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>4</v>
       </c>
@@ -6452,7 +6462,7 @@
         <v>0.203146741273353</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>4</v>
       </c>
@@ -6490,7 +6500,7 @@
         <v>0.14196870382982901</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>4</v>
       </c>
@@ -6528,7 +6538,7 @@
         <v>0.121871174596964</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>4</v>
       </c>
@@ -6566,7 +6576,7 @@
         <v>0.17442443763412099</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>4</v>
       </c>
@@ -6604,7 +6614,7 @@
         <v>0.13756243361221401</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>4</v>
       </c>
@@ -6642,7 +6652,7 @@
         <v>4.1960096677666398E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>4</v>
       </c>
@@ -6680,7 +6690,7 @@
         <v>0.105396525076851</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>4</v>
       </c>
@@ -6718,7 +6728,7 @@
         <v>0.105209477274846</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>5</v>
       </c>
@@ -6756,7 +6766,7 @@
         <v>1.6082726142122802E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>5</v>
       </c>
@@ -6794,7 +6804,7 @@
         <v>7.4659150804506098E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>5</v>
       </c>
@@ -6832,7 +6842,7 @@
         <v>6.4315168946419898E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>5</v>
       </c>
@@ -6870,7 +6880,7 @@
         <v>2.7133257728348799E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>5</v>
       </c>
@@ -6908,7 +6918,7 @@
         <v>3.5035150693882897E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>5</v>
       </c>
@@ -6946,7 +6956,7 @@
         <v>4.1298761472954297E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>5</v>
       </c>
@@ -6984,7 +6994,7 @@
         <v>5.2985151804249599E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>5</v>
       </c>
@@ -7022,7 +7032,7 @@
         <v>6.2644882154876194E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>5</v>
       </c>
@@ -7060,7 +7070,7 @@
         <v>1.07753414831294E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>5</v>
       </c>
@@ -7098,7 +7108,7 @@
         <v>7.2471753392511704E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>5</v>
       </c>
@@ -7136,7 +7146,7 @@
         <v>4.90756038275156E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>5</v>
       </c>
@@ -7174,7 +7184,7 @@
         <v>1.6805838745730699E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>5</v>
       </c>
@@ -7212,7 +7222,7 @@
         <v>6.2819038858649603E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
         <v>5</v>
       </c>
@@ -7250,7 +7260,7 @@
         <v>5.5403367276764502E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>5</v>
       </c>
@@ -7288,7 +7298,7 @@
         <v>2.9500995125160301E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
         <v>5</v>
       </c>
@@ -7326,7 +7336,7 @@
         <v>0.108458731987098</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
         <v>5</v>
       </c>
@@ -7364,7 +7374,7 @@
         <v>8.8646193794931299E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>5</v>
       </c>
@@ -7402,7 +7412,7 @@
         <v>5.49442829057014E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
         <v>5</v>
       </c>
@@ -7440,7 +7450,7 @@
         <v>7.7969068875724398E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
         <v>5</v>
       </c>
@@ -7478,7 +7488,7 @@
         <v>8.5790817557419893E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
         <v>5</v>
       </c>
@@ -7516,7 +7526,7 @@
         <v>4.8355704538968702E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
         <v>5</v>
       </c>
@@ -7554,7 +7564,7 @@
         <v>2.95758310389789E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>5</v>
       </c>
@@ -7592,7 +7602,7 @@
         <v>2.96916800886576E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
         <v>5</v>
       </c>
@@ -7630,7 +7640,7 @@
         <v>1.6242827118105398E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
         <v>5</v>
       </c>
@@ -7668,7 +7678,7 @@
         <v>6.8505188186760296E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
         <v>5</v>
       </c>
@@ -7706,7 +7716,7 @@
         <v>3.6143282755124302E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>5</v>
       </c>
@@ -7744,7 +7754,7 @@
         <v>3.1138815614805502E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
         <v>5</v>
       </c>
@@ -7782,7 +7792,7 @@
         <v>9.64142217365766E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <v>5</v>
       </c>
@@ -7820,7 +7830,7 @@
         <v>5.8314280263416701E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>5</v>
       </c>
@@ -7858,7 +7868,7 @@
         <v>8.6083138954733296E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>5</v>
       </c>
@@ -7896,7 +7906,7 @@
         <v>5.2053022129634099E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
         <v>5</v>
       </c>
@@ -7934,7 +7944,7 @@
         <v>2.2538098105479101E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
         <v>5</v>
       </c>
@@ -7972,7 +7982,7 @@
         <v>1.7088175823914701E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
         <v>5</v>
       </c>
@@ -8010,7 +8020,7 @@
         <v>0.115710328101403</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <v>5</v>
       </c>
@@ -8048,7 +8058,7 @@
         <v>0.138295312300244</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
         <v>5</v>
       </c>
@@ -8086,7 +8096,7 @@
         <v>0.11462856493260699</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>5</v>
       </c>
@@ -8124,7 +8134,7 @@
         <v>6.1003590805324803E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
         <v>5</v>
       </c>
@@ -8162,7 +8172,7 @@
         <v>7.3005949974565096E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
         <v>5</v>
       </c>
@@ -8200,7 +8210,7 @@
         <v>3.5741246442667601E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
         <v>5</v>
       </c>
@@ -8238,7 +8248,7 @@
         <v>0.10974425756164299</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
         <v>5</v>
       </c>
@@ -8257,8 +8267,8 @@
       <c r="F204" s="3">
         <v>122.92799722804899</v>
       </c>
-      <c r="G204" s="3">
-        <v>50802.111250000002</v>
+      <c r="G204" s="14">
+        <v>42035</v>
       </c>
       <c r="H204" s="5">
         <v>29447.9789583333</v>
@@ -8266,8 +8276,8 @@
       <c r="I204" s="3">
         <v>0.42815087031593102</v>
       </c>
-      <c r="J204" s="3">
-        <v>0.34856324232737901</v>
+      <c r="J204" s="14">
+        <v>0.24299999999999999</v>
       </c>
       <c r="K204" s="3">
         <v>0.64222134291674904</v>
@@ -8276,7 +8286,7 @@
         <v>8.7854721970819699E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
         <v>5</v>
       </c>
@@ -8286,8 +8296,8 @@
       <c r="C205" s="6">
         <v>3</v>
       </c>
-      <c r="D205" s="6">
-        <v>15231.975156250001</v>
+      <c r="D205" s="13">
+        <v>18611</v>
       </c>
       <c r="E205" s="6">
         <v>20956.679583333302</v>
@@ -8295,26 +8305,26 @@
       <c r="F205" s="6">
         <v>128.96126678843501</v>
       </c>
-      <c r="G205" s="6">
-        <v>21114.512291666601</v>
+      <c r="G205" s="13">
+        <v>37765</v>
       </c>
       <c r="H205" s="5">
         <v>24212.72671875</v>
       </c>
-      <c r="I205" s="6">
-        <v>0.190760417727635</v>
-      </c>
-      <c r="J205" s="6">
-        <v>4.3914431880415203E-2</v>
-      </c>
-      <c r="K205" s="3">
-        <v>0.286135957336136</v>
-      </c>
-      <c r="L205" s="6">
-        <v>0.14337146289687799</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I205" s="13">
+        <v>0.33</v>
+      </c>
+      <c r="J205" s="13">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="K205" s="14">
+        <v>0.495</v>
+      </c>
+      <c r="L205" s="13">
+        <v>9.8599999999999993E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
         <v>5</v>
       </c>
@@ -8336,8 +8346,8 @@
       <c r="G206" s="4">
         <v>49132.943437499998</v>
       </c>
-      <c r="H206" s="7">
-        <v>22782.3161979166</v>
+      <c r="H206" s="12">
+        <v>27557</v>
       </c>
       <c r="I206" s="4">
         <v>0.40356108963368498</v>
@@ -8352,7 +8362,7 @@
         <v>5.2416405252841802E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
         <v>5</v>
       </c>
@@ -8386,11 +8396,11 @@
       <c r="K207" s="3">
         <v>0.64705353900209805</v>
       </c>
-      <c r="L207" s="3">
-        <v>0.126316976426461</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L207" s="14">
+        <v>7.8899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
         <v>5</v>
       </c>
@@ -8428,7 +8438,7 @@
         <v>4.4454658610106099E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>5</v>
       </c>
@@ -8466,7 +8476,7 @@
         <v>7.1617412607238098E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <v>5</v>
       </c>
@@ -8504,7 +8514,7 @@
         <v>9.2283748929900294E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
         <v>5</v>
       </c>
@@ -8542,7 +8552,7 @@
         <v>4.26043326629452E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
         <v>5</v>
       </c>
@@ -8580,7 +8590,7 @@
         <v>8.8976401000837299E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
         <v>5</v>
       </c>
@@ -8618,7 +8628,7 @@
         <v>7.2278935877624406E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
         <v>5</v>
       </c>
@@ -8656,7 +8666,7 @@
         <v>5.2392336540887603E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
         <v>5</v>
       </c>
@@ -8694,7 +8704,7 @@
         <v>6.9889773322995397E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
         <v>5</v>
       </c>
@@ -8732,7 +8742,7 @@
         <v>4.4806462991639198E-3</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
         <v>5</v>
       </c>
